--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsaqi\Katalon Studio\M2U\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00156929\Documents\GitHub\M2U\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562B1500-4BFE-4260-BDE5-96F8B74F3164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{CEC8105E-D978-4179-AAD7-8991EBB051DE}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>User ID</t>
   </si>
@@ -79,12 +78,45 @@
   </si>
   <si>
     <t>DuitNow</t>
+  </si>
+  <si>
+    <t>tsaqif</t>
+  </si>
+  <si>
+    <t>Pass@1122</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>No Account</t>
+  </si>
+  <si>
+    <t>Asahi</t>
+  </si>
+  <si>
+    <t>Tsaqif</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>Secure Verification</t>
+  </si>
+  <si>
+    <t>Secure TAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,9 +155,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,20 +474,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E73EA-0F41-460B-84E3-C57A6B1270AF}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="70.1796875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +509,20 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -492,8 +541,26 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2">
+        <v>514013127536</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -506,21 +573,96 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2">
+        <v>514013127536</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{28639361-6453-407B-9F53-70802DEF942D}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{29B0607A-9BBD-4DA5-95E3-06D5265FF0B3}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{6A04EB51-0E9F-45CF-85F3-EC76BD76FFF1}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>User ID</t>
   </si>
@@ -68,18 +68,9 @@
     <t>Type of transaction</t>
   </si>
   <si>
-    <t>3rd Party</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Own Acc</t>
-  </si>
-  <si>
-    <t>DuitNow</t>
-  </si>
-  <si>
     <t>tsaqif</t>
   </si>
   <si>
@@ -111,6 +102,24 @@
   </si>
   <si>
     <t>Secure TAC</t>
+  </si>
+  <si>
+    <t>CIMB</t>
+  </si>
+  <si>
+    <t>1. 3rd Party</t>
+  </si>
+  <si>
+    <t>3. DuitNow</t>
+  </si>
+  <si>
+    <t>4. Own Acc</t>
+  </si>
+  <si>
+    <t>2. IBFT</t>
+  </si>
+  <si>
+    <t>5. IBG</t>
   </si>
 </sst>
 </file>
@@ -478,13 +487,14 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="70.1796875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
     <col min="7" max="7" width="17.26953125" customWidth="1"/>
     <col min="8" max="8" width="17.81640625" customWidth="1"/>
     <col min="10" max="10" width="14.1796875" customWidth="1"/>
@@ -507,19 +517,19 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -536,13 +546,13 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2">
         <v>514013127536</v>
@@ -551,15 +561,15 @@
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -567,42 +577,48 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2">
-        <v>514013127536</v>
-      </c>
-      <c r="I3" s="3"/>
+        <v>7054180442</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E4">
-        <v>3</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H5" s="2"/>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2">
+        <v>514013127536</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H6" s="2"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">

--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
+    <workbookView minimized="1" xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NOTED" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>User ID</t>
   </si>
@@ -65,9 +66,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Type of transaction</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -120,13 +118,60 @@
   </si>
   <si>
     <t>5. IBG</t>
+  </si>
+  <si>
+    <t>0173041302</t>
+  </si>
+  <si>
+    <t>DuitNow Type</t>
+  </si>
+  <si>
+    <t>1. Mobile</t>
+  </si>
+  <si>
+    <t>2. NRIC</t>
+  </si>
+  <si>
+    <t>3. Passport</t>
+  </si>
+  <si>
+    <t>4. BEG REG</t>
+  </si>
+  <si>
+    <t>930924145533</t>
+  </si>
+  <si>
+    <t>5. Army/Police ID</t>
+  </si>
+  <si>
+    <t>FG4567890</t>
+  </si>
+  <si>
+    <t>370620015149</t>
+  </si>
+  <si>
+    <t>T727714</t>
+  </si>
+  <si>
+    <t>Choose DuitNow Type</t>
+  </si>
+  <si>
+    <t>Update DuitNow Type</t>
+  </si>
+  <si>
+    <t>Choose Type of transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE
+ONLY UPDATE
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,21 +187,233 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -164,11 +421,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,192 +774,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="70.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
     <col min="6" max="6" width="14.26953125" customWidth="1"/>
     <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.90625" customWidth="1"/>
+    <col min="11" max="11" width="21.08984375" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="30">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="23">
+        <v>514013127536</v>
+      </c>
+      <c r="I2" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="21">
+        <v>1</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="23">
+        <v>7054180442</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="28">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E5" s="18"/>
+      <c r="F5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H5" s="13">
         <v>514013127536</v>
       </c>
-      <c r="I2" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I5" s="2"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E6" s="18"/>
+      <c r="F6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2">
-        <v>7054180442</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2">
-        <v>514013127536</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I16" s="3"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I7" s="2"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I17" s="3"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I18" s="3"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I19" s="3"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I20" s="3"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I21" s="3"/>
+      <c r="I21" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -681,4 +1026,204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>User ID</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>4. BEG REG</t>
-  </si>
-  <si>
-    <t>930924145533</t>
   </si>
   <si>
     <t>5. Army/Police ID</t>
@@ -165,6 +162,12 @@
     <t xml:space="preserve">NOTE
 ONLY UPDATE
 </t>
+  </si>
+  <si>
+    <t>https://172.31.11.35/cgi-bin/bvUIUX2/m2u/common/login.do</t>
+  </si>
+  <si>
+    <t>930924145533</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -453,11 +455,12 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -776,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,226 +797,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>514013127536</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>0.01</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="20">
         <v>1</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>7054180442</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>0.2</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>34</v>
+      <c r="M3" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="28">
+      <c r="G4" s="11"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="27">
         <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E5" s="17"/>
+      <c r="F5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="12">
+        <v>514013127536</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E5" s="18"/>
-      <c r="F5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="13">
-        <v>514013127536</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="16" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E6" s="17"/>
+      <c r="F6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E6" s="18"/>
-      <c r="F6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I7" s="2"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I8" s="2"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I9" s="2"/>
+      <c r="M9" s="1">
+        <v>930924145533</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I10" s="2"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I11" s="2"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I12" s="2"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I13" s="2"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I14" s="2"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I15" s="2"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I21" s="2"/>
     </row>
   </sheetData>
@@ -1022,9 +1039,10 @@
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1039,186 +1057,186 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="A1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
